--- a/Sray/Analysis/SG/SG_Descriptive Statistics.xlsx
+++ b/Sray/Analysis/SG/SG_Descriptive Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -100,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -475,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,50 +559,70 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>historical_market_cap</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>is_eps</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>fcf</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>return_com_eqy</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>roa</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>VOLATILITY_180D</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>roa_sec_sd</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>beta</t>
         </is>
@@ -612,76 +635,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5880</v>
+        <v>735</v>
       </c>
       <c r="C2" t="n">
-        <v>5880</v>
+        <v>735</v>
       </c>
       <c r="D2" t="n">
-        <v>5880</v>
+        <v>735</v>
       </c>
       <c r="E2" t="n">
-        <v>5880</v>
+        <v>735</v>
       </c>
       <c r="F2" t="n">
-        <v>5880</v>
+        <v>735</v>
       </c>
       <c r="G2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="H2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="I2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="J2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="K2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="L2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="M2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="N2" t="n">
-        <v>4270</v>
+        <v>543</v>
       </c>
       <c r="O2" t="n">
-        <v>5649</v>
+        <v>710</v>
       </c>
       <c r="P2" t="n">
-        <v>4473</v>
+        <v>607</v>
       </c>
       <c r="Q2" t="n">
-        <v>4410</v>
+        <v>599</v>
       </c>
       <c r="R2" t="n">
-        <v>4508</v>
+        <v>590</v>
       </c>
       <c r="S2" t="n">
-        <v>4459</v>
+        <v>603</v>
       </c>
       <c r="T2" t="n">
-        <v>4228</v>
+        <v>598</v>
       </c>
       <c r="U2" t="n">
-        <v>3941</v>
+        <v>564</v>
       </c>
       <c r="V2" t="n">
-        <v>3941</v>
+        <v>527</v>
       </c>
       <c r="W2" t="n">
-        <v>5544</v>
+        <v>527</v>
       </c>
       <c r="X2" t="n">
-        <v>5509</v>
+        <v>726</v>
       </c>
       <c r="Y2" t="n">
-        <v>5635</v>
+        <v>697</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>514</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>699</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>695</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>709</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +751,8 @@
           <t>EZRA SP Equity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2017-12</t>
-        </is>
+      <c r="F4" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="5">
@@ -729,502 +762,606 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1470</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>8.028571428571428</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2019.625</v>
-      </c>
-      <c r="G6" t="n">
-        <v>41.73075239775611</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76.79518655245421</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.52265744810222</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24.7414232754805</v>
-      </c>
-      <c r="K6" t="n">
-        <v>717.3650248541152</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1935.499837587542</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1843.08389797309</v>
-      </c>
-      <c r="N6" t="n">
-        <v>86000.30756560112</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.9211697645601</v>
-      </c>
-      <c r="P6" t="n">
-        <v>141039.5547289515</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>153.6650622222222</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.653882142857143</v>
-      </c>
-      <c r="S6" t="n">
-        <v>13374.23382135008</v>
-      </c>
-      <c r="T6" t="n">
-        <v>37.88656241721854</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6.333056660746004</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.657818294849023</v>
-      </c>
-      <c r="W6" t="n">
-        <v>28.16791287878788</v>
-      </c>
-      <c r="X6" t="n">
-        <v>28.66012198221093</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.8372064596273291</v>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.40464847374894</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.11781438717697</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.28149861479867</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11.507952586894</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.82279490226372</v>
-      </c>
-      <c r="J7" t="n">
-        <v>16.27207522377635</v>
-      </c>
-      <c r="K7" t="n">
-        <v>677.2082173298891</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1361.205611637362</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1040.883285279195</v>
-      </c>
-      <c r="N7" t="n">
-        <v>61303.99290455107</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5.778709570204828</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1125455.569362518</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1255.555790824529</v>
-      </c>
-      <c r="R7" t="n">
-        <v>80.37600724478159</v>
-      </c>
-      <c r="S7" t="n">
-        <v>118770.5713310561</v>
-      </c>
-      <c r="T7" t="n">
-        <v>167.3579174850551</v>
-      </c>
-      <c r="U7" t="n">
-        <v>15.00604530897987</v>
-      </c>
-      <c r="V7" t="n">
-        <v>7.424808367084408</v>
-      </c>
-      <c r="W7" t="n">
-        <v>19.75236955754466</v>
-      </c>
-      <c r="X7" t="n">
-        <v>18.34294060305831</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.9555819560597867</v>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>44957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>8.028571428571428</v>
       </c>
       <c r="E8" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G8" t="n">
-        <v>14.45528602600098</v>
+        <v>42.39756736614866</v>
       </c>
       <c r="H8" t="n">
-        <v>22.90788650512695</v>
+        <v>76.87130811772074</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>24.39267715806241</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>25.79787338509963</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>754.376631139201</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2016.451001428286</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1911.378567465934</v>
       </c>
       <c r="N8" t="n">
-        <v>3020.508542768684</v>
+        <v>89149.67819684965</v>
       </c>
       <c r="O8" t="n">
-        <v>0.011</v>
+        <v>2.862695774647887</v>
       </c>
       <c r="P8" t="n">
-        <v>6.9759</v>
+        <v>-0.01907978247173103</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0031</v>
+        <v>148834.2185460768</v>
       </c>
       <c r="R8" t="n">
-        <v>-98.16289999999999</v>
+        <v>163.8823462711864</v>
       </c>
       <c r="S8" t="n">
-        <v>-4202</v>
+        <v>8.163387064676616</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4403</v>
+        <v>14233.71815585284</v>
       </c>
       <c r="U8" t="n">
-        <v>-60.2668</v>
+        <v>38.62419734042554</v>
       </c>
       <c r="V8" t="n">
-        <v>-38.2116</v>
+        <v>6.008297722960152</v>
       </c>
       <c r="W8" t="n">
-        <v>8.759</v>
+        <v>2.48769734345351</v>
       </c>
       <c r="X8" t="n">
-        <v>9.853</v>
+        <v>2.602257942658406</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.6686</v>
+        <v>4.768461906803014</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-3.974339232121183e-17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>28.80602718168813</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29.25799424460432</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.8498211565585331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>std</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>3.406677206792662</v>
       </c>
       <c r="E9" t="n">
-        <v>2017.75</v>
+        <v>2.001361934104038</v>
       </c>
       <c r="G9" t="n">
-        <v>34.75505447387695</v>
+        <v>10.04577018484489</v>
       </c>
       <c r="H9" t="n">
-        <v>76.09873962402344</v>
+        <v>11.3854709968093</v>
       </c>
       <c r="I9" t="n">
-        <v>16.59613037109375</v>
+        <v>11.54845395168433</v>
       </c>
       <c r="J9" t="n">
-        <v>12.89640617370605</v>
+        <v>15.99337283239192</v>
       </c>
       <c r="K9" t="n">
-        <v>215.4647739541398</v>
+        <v>684.4183096639678</v>
       </c>
       <c r="L9" t="n">
-        <v>906.0070735919438</v>
+        <v>1346.964743902588</v>
       </c>
       <c r="M9" t="n">
-        <v>1158.101373502403</v>
+        <v>1027.089585516185</v>
       </c>
       <c r="N9" t="n">
-        <v>41981.11031781061</v>
+        <v>61966.97890164824</v>
       </c>
       <c r="O9" t="n">
-        <v>0.515</v>
+        <v>5.670662356405011</v>
       </c>
       <c r="P9" t="n">
-        <v>649.2914</v>
+        <v>0.2871819189240762</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1545</v>
+        <v>1162634.680747895</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00755</v>
+        <v>1297.737159605339</v>
       </c>
       <c r="S9" t="n">
-        <v>-4.294</v>
+        <v>83.09872579862011</v>
       </c>
       <c r="T9" t="n">
-        <v>9.64645</v>
+        <v>122620.5772963407</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2904</v>
+        <v>173.1179030778551</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8678</v>
+        <v>14.81667777173803</v>
       </c>
       <c r="W9" t="n">
-        <v>17.56</v>
+        <v>7.551354080545077</v>
       </c>
       <c r="X9" t="n">
-        <v>17.86</v>
+        <v>5.808421639039724</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4107</v>
+        <v>3.634848710726324</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9397025783047074</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>20.14474240915857</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18.77836333286428</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.9367710421438237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2019.5</v>
+        <v>2017</v>
       </c>
       <c r="G10" t="n">
-        <v>41.73121452331543</v>
+        <v>14.45528602600098</v>
       </c>
       <c r="H10" t="n">
-        <v>80.52378082275391</v>
+        <v>22.90788650512695</v>
       </c>
       <c r="I10" t="n">
-        <v>23.8210391998291</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.65690135955811</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>574.1720655133777</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1869.44084713616</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1809.88650581133</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>72674.69929246139</v>
+        <v>3020.508542768684</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>0.011</v>
       </c>
       <c r="P10" t="n">
-        <v>2391.6627</v>
+        <v>-0.8058551617873652</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4429</v>
+        <v>6.9759</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0391</v>
+        <v>0.0031</v>
       </c>
       <c r="S10" t="n">
-        <v>35.786</v>
+        <v>-98.16289999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>14.50255</v>
+        <v>-4157.502</v>
       </c>
       <c r="U10" t="n">
-        <v>6.6756</v>
+        <v>0.4403</v>
       </c>
       <c r="V10" t="n">
-        <v>2.8344</v>
+        <v>-60.2668</v>
       </c>
       <c r="W10" t="n">
-        <v>22.701</v>
+        <v>-38.2116</v>
       </c>
       <c r="X10" t="n">
-        <v>23.328</v>
+        <v>-38.2116</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7469</v>
+        <v>0.6600841802376418</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-2.943647736128744</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.759</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.853</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-3.6686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>2021.25</v>
+        <v>2018</v>
       </c>
       <c r="G11" t="n">
-        <v>48.60678100585938</v>
+        <v>35.74087142944336</v>
       </c>
       <c r="H11" t="n">
-        <v>83.59422302246094</v>
+        <v>75.18061447143555</v>
       </c>
       <c r="I11" t="n">
-        <v>30.0785961151123</v>
+        <v>17.38210487365723</v>
       </c>
       <c r="J11" t="n">
-        <v>35.72938537597656</v>
+        <v>14.40652322769165</v>
       </c>
       <c r="K11" t="n">
-        <v>1028.276998320886</v>
+        <v>271.8161943694304</v>
       </c>
       <c r="L11" t="n">
-        <v>2919.544202213845</v>
+        <v>1104.357096375545</v>
       </c>
       <c r="M11" t="n">
-        <v>2426.970048550022</v>
+        <v>1279.781157217323</v>
       </c>
       <c r="N11" t="n">
-        <v>114839.3120982922</v>
+        <v>45655.74266034651</v>
       </c>
       <c r="O11" t="n">
-        <v>2.25</v>
+        <v>0.5062500000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>7553.881</v>
+        <v>-0.1442965174462668</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8011</v>
+        <v>645.03655</v>
       </c>
       <c r="R11" t="n">
-        <v>0.12045</v>
+        <v>0.1545</v>
       </c>
       <c r="S11" t="n">
-        <v>165.447</v>
+        <v>0.00595</v>
       </c>
       <c r="T11" t="n">
-        <v>24.5681</v>
+        <v>-4.02175</v>
       </c>
       <c r="U11" t="n">
-        <v>11.1915</v>
+        <v>9.523299999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>5.4347</v>
+        <v>2.1574</v>
       </c>
       <c r="W11" t="n">
-        <v>31.3</v>
+        <v>0.7997</v>
       </c>
       <c r="X11" t="n">
-        <v>34.379</v>
+        <v>2.781125</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.1005</v>
+        <v>3.148303885570362</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.589440839897584</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>18.1135</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18.2885</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.4349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G12" t="n">
+        <v>42.13861846923828</v>
+      </c>
+      <c r="H12" t="n">
+        <v>80.52378082275391</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24.60701370239258</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26.39685821533203</v>
+      </c>
+      <c r="K12" t="n">
+        <v>603.1769685680047</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1926.182990432732</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1870.496938866301</v>
+      </c>
+      <c r="N12" t="n">
+        <v>74823.99270285573</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.02191171800571612</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2310.407</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.4266</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="T12" t="n">
+        <v>36.236</v>
+      </c>
+      <c r="U12" t="n">
+        <v>14.27015</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.5988</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.7643</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.411265966386555</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4.186535282763934</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.06366995964322639</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>23.263</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23.873</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.7569</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G13" t="n">
+        <v>48.93873977661133</v>
+      </c>
+      <c r="H13" t="n">
+        <v>83.59422302246094</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30.33554935455322</v>
+      </c>
+      <c r="J13" t="n">
+        <v>36.03141021728516</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1047.196347025911</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2941.325034742011</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2455.673225079598</v>
+      </c>
+      <c r="N13" t="n">
+        <v>117208.6654555759</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.06313668172557363</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7113.35315</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6318</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.1187</v>
+      </c>
+      <c r="T13" t="n">
+        <v>165.03525</v>
+      </c>
+      <c r="U13" t="n">
+        <v>23.72195</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11.18615</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.3785</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.788114285714286</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4.918722192602465</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.56703736741107</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>31.9365</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>35.048</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.1077</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E14" t="n">
         <v>2023</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>72.01488494873047</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>97.50150299072266</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>63.72430419921875</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>71.70039367675781</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>3698.620023677183</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>6093.022564030951</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M14" t="n">
         <v>6213.215436461847</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N14" t="n">
         <v>373479.5385832811</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>40.67</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
+        <v>2.678571428571428</v>
+      </c>
+      <c r="Q14" t="n">
         <v>14314515.3467</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R14" t="n">
         <v>14060.2093</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S14" t="n">
         <v>1247</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T14" t="n">
         <v>1518196</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U14" t="n">
         <v>2875</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V14" t="n">
         <v>91.5004</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W14" t="n">
         <v>34.6373</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X14" t="n">
+        <v>20.3879</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25.2996442347516</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5.023126662926728</v>
+      </c>
+      <c r="AA14" t="n">
         <v>218.336</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AB14" t="n">
         <v>253.518</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AC14" t="n">
         <v>16.9826</v>
       </c>
     </row>
@@ -1248,27 +1385,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>sec_no</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>tkr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
@@ -1276,8 +1413,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
@@ -1285,8 +1422,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
@@ -1294,8 +1431,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
@@ -1303,8 +1440,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
@@ -1312,8 +1449,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
@@ -1321,8 +1458,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
@@ -1330,8 +1467,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
@@ -1339,8 +1476,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
@@ -1348,8 +1485,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
@@ -1357,8 +1494,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
@@ -1366,10 +1503,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
@@ -1377,8 +1514,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
@@ -1386,8 +1523,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
@@ -1395,8 +1532,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="n">
@@ -1404,8 +1541,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
@@ -1413,8 +1550,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="n">
@@ -1422,8 +1559,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="n">
@@ -1431,8 +1568,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C20" t="n">
@@ -1440,8 +1577,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="2" t="n">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C21" t="n">
@@ -1449,8 +1586,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C22" t="n">
@@ -1458,8 +1595,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="2" t="n">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C23" t="n">
@@ -1467,10 +1604,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
@@ -1478,8 +1615,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="2" t="n">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
@@ -1487,8 +1624,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="2" t="n">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
@@ -1496,8 +1633,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="2" t="n">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C27" t="n">
@@ -1505,8 +1642,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="2" t="n">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C28" t="n">
@@ -1514,8 +1651,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="2" t="n">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C29" t="n">
@@ -1523,8 +1660,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="2" t="n">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C30" t="n">
@@ -1532,8 +1669,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C31" t="n">
@@ -1541,8 +1678,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="2" t="n">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C32" t="n">
@@ -1550,8 +1687,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="2" t="n">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C33" t="n">
@@ -1559,8 +1696,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C34" t="n">
@@ -1568,10 +1705,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
@@ -1579,8 +1716,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
@@ -1588,8 +1725,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
@@ -1597,8 +1734,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="2" t="n">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="n">
@@ -1606,8 +1743,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C39" t="n">
@@ -1615,8 +1752,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="2" t="n">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C40" t="n">
@@ -1624,8 +1761,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="2" t="n">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C41" t="n">
@@ -1633,8 +1770,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="2" t="n">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
@@ -1642,8 +1779,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="2" t="n">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C43" t="n">
@@ -1651,8 +1788,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="2" t="n">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C44" t="n">
@@ -1660,8 +1797,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="B45" s="2" t="n">
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C45" t="n">
@@ -1669,10 +1806,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
@@ -1680,8 +1817,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="2" t="n">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
@@ -1689,8 +1826,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="2" t="n">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
@@ -1698,8 +1835,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="2" t="n">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C49" t="n">
@@ -1707,8 +1844,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="2" t="n">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="n">
@@ -1716,8 +1853,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="2" t="n">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C51" t="n">
@@ -1725,8 +1862,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="2" t="n">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C52" t="n">
@@ -1734,8 +1871,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="2" t="n">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C53" t="n">
@@ -1743,8 +1880,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="2" t="n">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C54" t="n">
@@ -1752,8 +1889,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="2" t="n">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C55" t="n">
@@ -1761,8 +1898,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="2" t="n">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C56" t="n">
@@ -1770,10 +1907,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
@@ -1781,8 +1918,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="2" t="n">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
@@ -1790,8 +1927,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="2" t="n">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C59" t="n">
@@ -1799,8 +1936,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="2" t="n">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C60" t="n">
@@ -1808,8 +1945,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="2" t="n">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C61" t="n">
@@ -1817,8 +1954,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="2" t="n">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C62" t="n">
@@ -1826,8 +1963,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="2" t="n">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C63" t="n">
@@ -1835,8 +1972,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="2" t="n">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C64" t="n">
@@ -1844,8 +1981,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="2" t="n">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C65" t="n">
@@ -1853,8 +1990,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="2" t="n">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C66" t="n">
@@ -1862,8 +1999,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n"/>
-      <c r="B67" s="2" t="n">
+      <c r="A67" s="5" t="n"/>
+      <c r="B67" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C67" t="n">
@@ -1871,10 +2008,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
@@ -1882,8 +2019,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n"/>
-      <c r="B69" s="2" t="n">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C69" t="n">
@@ -1891,8 +2028,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="2" t="n">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
@@ -1900,8 +2037,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n"/>
-      <c r="B71" s="2" t="n">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C71" t="n">
@@ -1909,8 +2046,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="2" t="n">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C72" t="n">
@@ -1918,8 +2055,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="2" t="n">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C73" t="n">
@@ -1927,8 +2064,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="2" t="n">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C74" t="n">
@@ -1936,8 +2073,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="2" t="n">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C75" t="n">
@@ -1945,8 +2082,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="2" t="n">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C76" t="n">
@@ -1954,8 +2091,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n"/>
-      <c r="B77" s="2" t="n">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C77" t="n">
@@ -1963,8 +2100,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="n"/>
-      <c r="B78" s="2" t="n">
+      <c r="A78" s="5" t="n"/>
+      <c r="B78" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C78" t="n">
@@ -1991,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,12 +2137,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>kurtosis</t>
         </is>
@@ -2018,7 +2155,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.311143102131952</v>
+        <v>-1.311803361797853</v>
       </c>
     </row>
     <row r="3">
@@ -2028,7 +2165,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.338946983011826</v>
+        <v>-1.250337336643333</v>
       </c>
     </row>
     <row r="4">
@@ -2038,7 +2175,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02699967932311509</v>
+        <v>0.1482940014944392</v>
       </c>
     </row>
     <row r="5">
@@ -2048,7 +2185,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.87457641236466</v>
+        <v>3.754128084240578</v>
       </c>
     </row>
     <row r="6">
@@ -2058,7 +2195,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3329511862640939</v>
+        <v>0.5255333316063169</v>
       </c>
     </row>
     <row r="7">
@@ -2068,7 +2205,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5048599270281877</v>
+        <v>-0.3973233291128579</v>
       </c>
     </row>
     <row r="8">
@@ -2078,7 +2215,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.177262220832713</v>
+        <v>3.206701110383216</v>
       </c>
     </row>
     <row r="9">
@@ -2088,7 +2225,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2255815873746685</v>
+        <v>-0.1315622810532657</v>
       </c>
     </row>
     <row r="10">
@@ -2098,7 +2235,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9289050620965114</v>
+        <v>1.137510512747025</v>
       </c>
     </row>
     <row r="11">
@@ -2108,7 +2245,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.149401152702975</v>
+        <v>3.205769841683253</v>
       </c>
     </row>
     <row r="12">
@@ -2118,117 +2255,157 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.41222888139475</v>
+        <v>15.49364036627125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>historical_market_cap</t>
+          <t>ret</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.3249220938607</v>
+        <v>27.67393917940485</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trail_12m_sales_per_sh</t>
+          <t>historical_market_cap</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.69128632439883</v>
+        <v>95.45058686595834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>is_eps</t>
+          <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>184.4299414508411</v>
+        <v>75.82550964910178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fcf</t>
+          <t>is_eps</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.75071362198376</v>
+        <v>173.6503321499851</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>fcf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>240.4673043918717</v>
+        <v>93.0939195504734</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>return_com_eqy</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.482141606839228</v>
+        <v>226.9315924506109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>roa</t>
+          <t>return_com_eqy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.88183128011287</v>
+        <v>7.790212297332907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VOLATILITY_180D</t>
+          <t>roa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.83386062533031</v>
+        <v>11.75106968609408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.23784633883346</v>
+        <v>25.26948038177963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>roa_sec_sd</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.0807705443099</v>
+        <v>14.66120614328326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.672352456025641</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22.00467871740562</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>34.7273771926716</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>131.573383706725</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>kurtosis_mean</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>43.55725767970544</v>
+      <c r="B27" t="n">
+        <v>38.69824765466684</v>
       </c>
     </row>
   </sheetData>
